--- a/time.xlsx
+++ b/time.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamFetzner\Documents\Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EDD257-819D-4CAD-9C52-105BC4CF660B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941193A-10F3-43F7-A364-CF786FFE86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17325" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{388F46A5-F851-4341-BCEB-303F03513CB0}"/>
+    <workbookView xWindow="-17325" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{388F46A5-F851-4341-BCEB-303F03513CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="After 1st round" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="349">
   <si>
     <t>Time</t>
   </si>
@@ -1068,6 +1069,21 @@
   </si>
   <si>
     <t>close at stop</t>
+  </si>
+  <si>
+    <t>2023.10.24 20:00</t>
+  </si>
+  <si>
+    <t>2023.10.24 20:45</t>
+  </si>
+  <si>
+    <t>2023.11.01 19:15</t>
+  </si>
+  <si>
+    <t>2023.11.01 20:00</t>
+  </si>
+  <si>
+    <t>2023.11.08 11:00</t>
   </si>
 </sst>
 </file>
@@ -1458,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E77305-7578-44F1-9B42-4448C47B59AD}">
   <dimension ref="A1:I331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11066,4 +11082,5938 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD9CC35-6F84-49B5-B265-08E3152872A9}">
+  <dimension ref="A1:I204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1.0536399999999999</v>
+      </c>
+      <c r="F2">
+        <v>1.05254</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1.0536399999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.05294</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1.0537700000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.05294</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>91</v>
+      </c>
+      <c r="I4">
+        <v>100091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1.05298</v>
+      </c>
+      <c r="F5">
+        <v>1.0540799999999999</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1.0539499999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.0540799999999999</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>-679</v>
+      </c>
+      <c r="I6">
+        <v>99412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1.0545800000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.05348</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>99412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1.0545800000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.05379</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>99412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1.05446</v>
+      </c>
+      <c r="F9">
+        <v>1.05379</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-84</v>
+      </c>
+      <c r="I9">
+        <v>99328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1.05352</v>
+      </c>
+      <c r="F10">
+        <v>1.0546199999999999</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>99328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1.0544500000000001</v>
+      </c>
+      <c r="F11">
+        <v>1.0546199999999999</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-651</v>
+      </c>
+      <c r="I11">
+        <v>98677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1.05803</v>
+      </c>
+      <c r="F12">
+        <v>1.0569299999999999</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>98677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1.05803</v>
+      </c>
+      <c r="F13">
+        <v>1.05741</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>98677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1.05803</v>
+      </c>
+      <c r="F14">
+        <v>1.05785</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>98677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>1.05803</v>
+      </c>
+      <c r="F15">
+        <v>1.0581100000000001</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>98677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>1.05803</v>
+      </c>
+      <c r="F16">
+        <v>1.0581199999999999</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>98677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1.05803</v>
+      </c>
+      <c r="F17">
+        <v>1.05813</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>98677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1.05813</v>
+      </c>
+      <c r="F18">
+        <v>1.05813</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
+      <c r="I18">
+        <v>98747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>1.0569</v>
+      </c>
+      <c r="F19">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>98747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>1.0577399999999999</v>
+      </c>
+      <c r="F20">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-588</v>
+      </c>
+      <c r="I20">
+        <v>98159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>1.05742</v>
+      </c>
+      <c r="F21">
+        <v>1.0585199999999999</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>98159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>1.0583400000000001</v>
+      </c>
+      <c r="F22">
+        <v>1.0585199999999999</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>-644</v>
+      </c>
+      <c r="I22">
+        <v>97515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>1.0585</v>
+      </c>
+      <c r="F23">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>97515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="F24">
+        <v>1.0573999999999999</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>-770</v>
+      </c>
+      <c r="I24">
+        <v>96745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>1.05691</v>
+      </c>
+      <c r="F25">
+        <v>1.0580099999999999</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>96745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>1.0562400000000001</v>
+      </c>
+      <c r="F26">
+        <v>1.0580099999999999</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>469</v>
+      </c>
+      <c r="I26">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1.0552699999999999</v>
+      </c>
+      <c r="F27">
+        <v>1.05637</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1.0552699999999999</v>
+      </c>
+      <c r="F28">
+        <v>1.05402</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>1.0552699999999999</v>
+      </c>
+      <c r="F29">
+        <v>1.05352</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>97214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>1.05352</v>
+      </c>
+      <c r="F30">
+        <v>1.05352</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1225</v>
+      </c>
+      <c r="I30">
+        <v>98439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>1.0535699999999999</v>
+      </c>
+      <c r="F31">
+        <v>1.05467</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>98439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>1.05365</v>
+      </c>
+      <c r="F32">
+        <v>1.05467</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>15.63</v>
+      </c>
+      <c r="I32">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>1.05444</v>
+      </c>
+      <c r="F33">
+        <v>1.0533399999999999</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>1.05444</v>
+      </c>
+      <c r="F34">
+        <v>1.0537799999999999</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1.05444</v>
+      </c>
+      <c r="F35">
+        <v>1.0538099999999999</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>1.05444</v>
+      </c>
+      <c r="F36">
+        <v>1.05399</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>1.05444</v>
+      </c>
+      <c r="F37">
+        <v>1.05477</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>1.05444</v>
+      </c>
+      <c r="F38">
+        <v>1.0547800000000001</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1.05444</v>
+      </c>
+      <c r="F39">
+        <v>1.0550999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>1.05444</v>
+      </c>
+      <c r="F40">
+        <v>1.05548</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>1.05444</v>
+      </c>
+      <c r="F41">
+        <v>1.0561100000000001</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>1.05444</v>
+      </c>
+      <c r="F42">
+        <v>1.0565199999999999</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>98454.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>1.05707</v>
+      </c>
+      <c r="F43">
+        <v>1.0565199999999999</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1841</v>
+      </c>
+      <c r="I43">
+        <v>100295.63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>338</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>1.05779</v>
+      </c>
+      <c r="F44">
+        <v>1.0566899999999999</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>100295.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C45">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1.0566899999999999</v>
+      </c>
+      <c r="F45">
+        <v>1.0566899999999999</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>-770</v>
+      </c>
+      <c r="I45">
+        <v>99525.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46">
+        <v>1.0587500000000001</v>
+      </c>
+      <c r="F46">
+        <v>1.05765</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>99525.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>1.0587500000000001</v>
+      </c>
+      <c r="F47">
+        <v>1.05785</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>99525.63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>1.0587500000000001</v>
+      </c>
+      <c r="F48">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>99525.63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>339</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>1.0587500000000001</v>
+      </c>
+      <c r="F49">
+        <v>1.0583800000000001</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>99525.63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>340</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>1.0590599999999999</v>
+      </c>
+      <c r="F50">
+        <v>1.0583800000000001</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>217</v>
+      </c>
+      <c r="I50">
+        <v>99742.63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>1.0583400000000001</v>
+      </c>
+      <c r="F51">
+        <v>1.0594399999999999</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>99742.63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>1.0594399999999999</v>
+      </c>
+      <c r="F52">
+        <v>1.0594399999999999</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>-770</v>
+      </c>
+      <c r="I52">
+        <v>98972.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>1.0595600000000001</v>
+      </c>
+      <c r="F53">
+        <v>1.05846</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>98972.63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>340</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1.05911</v>
+      </c>
+      <c r="F54">
+        <v>1.05846</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>-315</v>
+      </c>
+      <c r="I54">
+        <v>98657.63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>1.05976</v>
+      </c>
+      <c r="F55">
+        <v>1.0586599999999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>98657.63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>1.05976</v>
+      </c>
+      <c r="F56">
+        <v>1.05949</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>98657.63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>339</v>
+      </c>
+      <c r="C57">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>1.05976</v>
+      </c>
+      <c r="F57">
+        <v>1.05952</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>98657.63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>339</v>
+      </c>
+      <c r="C58">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>1.05976</v>
+      </c>
+      <c r="F58">
+        <v>1.0603400000000001</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>98657.63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>1.0603400000000001</v>
+      </c>
+      <c r="F59">
+        <v>1.0603400000000001</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>406</v>
+      </c>
+      <c r="I59">
+        <v>99063.63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>1.0614300000000001</v>
+      </c>
+      <c r="F60">
+        <v>1.06033</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>99063.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C61">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>1.0609599999999999</v>
+      </c>
+      <c r="F61">
+        <v>1.06033</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>-329</v>
+      </c>
+      <c r="I61">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62">
+        <v>19</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>1.06176</v>
+      </c>
+      <c r="F62">
+        <v>1.0606599999999999</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63">
+        <v>19</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>1.06176</v>
+      </c>
+      <c r="F63">
+        <v>1.0615399999999999</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>1.06176</v>
+      </c>
+      <c r="F64">
+        <v>1.06176</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C65">
+        <v>19</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>1.06176</v>
+      </c>
+      <c r="F65">
+        <v>1.06257</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>339</v>
+      </c>
+      <c r="C66">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>1.06176</v>
+      </c>
+      <c r="F66">
+        <v>1.0627200000000001</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67">
+        <v>19</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>1.06176</v>
+      </c>
+      <c r="F67">
+        <v>1.06341</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68">
+        <v>19</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>1.06176</v>
+      </c>
+      <c r="F68">
+        <v>1.06345</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>1.06176</v>
+      </c>
+      <c r="F69">
+        <v>1.0637799999999999</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>1.06176</v>
+      </c>
+      <c r="F70">
+        <v>1.06386</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>339</v>
+      </c>
+      <c r="C71">
+        <v>19</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>1.06176</v>
+      </c>
+      <c r="F71">
+        <v>1.06535</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" t="s">
+        <v>339</v>
+      </c>
+      <c r="C72">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>1.06176</v>
+      </c>
+      <c r="F72">
+        <v>1.06549</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>339</v>
+      </c>
+      <c r="C73">
+        <v>19</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>1.06176</v>
+      </c>
+      <c r="F73">
+        <v>1.0657399999999999</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>1.06176</v>
+      </c>
+      <c r="F74">
+        <v>1.0658399999999999</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>1.06176</v>
+      </c>
+      <c r="F75">
+        <v>1.06592</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="s">
+        <v>339</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>1.06176</v>
+      </c>
+      <c r="F76">
+        <v>1.0660099999999999</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77">
+        <v>19</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>1.06176</v>
+      </c>
+      <c r="F77">
+        <v>1.06609</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" t="s">
+        <v>339</v>
+      </c>
+      <c r="C78">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>1.06176</v>
+      </c>
+      <c r="F78">
+        <v>1.0663100000000001</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>98734.63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>340</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>1.06687</v>
+      </c>
+      <c r="F79">
+        <v>1.0663100000000001</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>3577</v>
+      </c>
+      <c r="I79">
+        <v>102311.63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>1.0650900000000001</v>
+      </c>
+      <c r="F80">
+        <v>1.06619</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>102311.63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" t="s">
+        <v>339</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>1.0650900000000001</v>
+      </c>
+      <c r="F81">
+        <v>1.06365</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>102311.63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" t="s">
+        <v>339</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>1.0650900000000001</v>
+      </c>
+      <c r="F82">
+        <v>1.06351</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>102311.63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83">
+        <v>1.06351</v>
+      </c>
+      <c r="F83">
+        <v>1.06351</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1106</v>
+      </c>
+      <c r="I83">
+        <v>103417.63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84">
+        <v>1.06247</v>
+      </c>
+      <c r="F84">
+        <v>1.0635699999999999</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>103417.63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85">
+        <v>1.0612999999999999</v>
+      </c>
+      <c r="F85">
+        <v>1.0635699999999999</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>819</v>
+      </c>
+      <c r="I85">
+        <v>104236.63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>7</v>
+      </c>
+      <c r="E86">
+        <v>1.05867</v>
+      </c>
+      <c r="F86">
+        <v>1.0597700000000001</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>104236.63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>1.0593999999999999</v>
+      </c>
+      <c r="F87">
+        <v>1.0597700000000001</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>-511</v>
+      </c>
+      <c r="I87">
+        <v>103725.63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>1.0567299999999999</v>
+      </c>
+      <c r="F88">
+        <v>1.05783</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>103725.63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89">
+        <v>23</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>1.0576399999999999</v>
+      </c>
+      <c r="F89">
+        <v>1.05783</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>-637</v>
+      </c>
+      <c r="I89">
+        <v>103088.63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" t="s">
+        <v>338</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>1.0587200000000001</v>
+      </c>
+      <c r="F90">
+        <v>1.05762</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>103088.63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" t="s">
+        <v>339</v>
+      </c>
+      <c r="C91">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>1.0587200000000001</v>
+      </c>
+      <c r="F91">
+        <v>1.05796</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>103088.63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92">
+        <v>24</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>1.0587200000000001</v>
+      </c>
+      <c r="F92">
+        <v>1.05826</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>103088.63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93">
+        <v>24</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>1.05826</v>
+      </c>
+      <c r="F93">
+        <v>1.05826</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>-322</v>
+      </c>
+      <c r="I93">
+        <v>102766.63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94">
+        <v>25</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>1.05661</v>
+      </c>
+      <c r="F94">
+        <v>1.0577099999999999</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>102766.63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95">
+        <v>25</v>
+      </c>
+      <c r="D95">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>1.0566500000000001</v>
+      </c>
+      <c r="F95">
+        <v>1.0577099999999999</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>43.63</v>
+      </c>
+      <c r="I95">
+        <v>102810.26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" t="s">
+        <v>338</v>
+      </c>
+      <c r="C96">
+        <v>26</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F96">
+        <v>1.0537300000000001</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>102810.26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>7</v>
+      </c>
+      <c r="E97">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F97">
+        <v>1.05389</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>102810.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>340</v>
+      </c>
+      <c r="C98">
+        <v>26</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>1.0544899999999999</v>
+      </c>
+      <c r="F98">
+        <v>1.05389</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>-238</v>
+      </c>
+      <c r="I98">
+        <v>102572.26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99">
+        <v>27</v>
+      </c>
+      <c r="D99">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>1.0547200000000001</v>
+      </c>
+      <c r="F99">
+        <v>1.05362</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>102572.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100">
+        <v>27</v>
+      </c>
+      <c r="D100">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>1.0547200000000001</v>
+      </c>
+      <c r="F100">
+        <v>1.0548900000000001</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>102572.26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>1.0548900000000001</v>
+      </c>
+      <c r="F101">
+        <v>1.0548900000000001</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>119</v>
+      </c>
+      <c r="I101">
+        <v>102691.26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>341</v>
+      </c>
+      <c r="C102">
+        <v>28</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>1.0528200000000001</v>
+      </c>
+      <c r="F102">
+        <v>1.05392</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>102691.26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103">
+        <v>28</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>1.05392</v>
+      </c>
+      <c r="F103">
+        <v>1.05392</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>-770</v>
+      </c>
+      <c r="I103">
+        <v>101921.26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>338</v>
+      </c>
+      <c r="C104">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F104">
+        <v>1.0537300000000001</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>101921.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" t="s">
+        <v>339</v>
+      </c>
+      <c r="C105">
+        <v>29</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F105">
+        <v>1.0539499999999999</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>101921.26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106">
+        <v>29</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F106">
+        <v>1.05433</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>101921.26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107">
+        <v>29</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F107">
+        <v>1.05467</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>101921.26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" t="s">
+        <v>339</v>
+      </c>
+      <c r="C108">
+        <v>29</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F108">
+        <v>1.0551900000000001</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>101921.26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" t="s">
+        <v>340</v>
+      </c>
+      <c r="C109">
+        <v>29</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>1.0554300000000001</v>
+      </c>
+      <c r="F109">
+        <v>1.0551900000000001</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>420</v>
+      </c>
+      <c r="I109">
+        <v>102341.26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>180</v>
+      </c>
+      <c r="B110" t="s">
+        <v>341</v>
+      </c>
+      <c r="C110">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>1.05569</v>
+      </c>
+      <c r="F110">
+        <v>1.0567899999999999</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>102341.26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111">
+        <v>30</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>1.05585</v>
+      </c>
+      <c r="F111">
+        <v>1.0567899999999999</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>-112</v>
+      </c>
+      <c r="I111">
+        <v>102229.26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>182</v>
+      </c>
+      <c r="B112" t="s">
+        <v>338</v>
+      </c>
+      <c r="C112">
+        <v>31</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>1.05948</v>
+      </c>
+      <c r="F112">
+        <v>1.0583800000000001</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>102229.26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>183</v>
+      </c>
+      <c r="B113" t="s">
+        <v>342</v>
+      </c>
+      <c r="C113">
+        <v>31</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>1.0583800000000001</v>
+      </c>
+      <c r="F113">
+        <v>1.0583800000000001</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>-770</v>
+      </c>
+      <c r="I113">
+        <v>101459.26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>184</v>
+      </c>
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114">
+        <v>32</v>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>1.0562499999999999</v>
+      </c>
+      <c r="F114">
+        <v>1.05735</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>101459.26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>185</v>
+      </c>
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115">
+        <v>32</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>1.05735</v>
+      </c>
+      <c r="F115">
+        <v>1.05735</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>-770</v>
+      </c>
+      <c r="I115">
+        <v>100689.26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116">
+        <v>33</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>1.0588599999999999</v>
+      </c>
+      <c r="F116">
+        <v>1.05776</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>100689.26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117">
+        <v>33</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117">
+        <v>1.0585199999999999</v>
+      </c>
+      <c r="F117">
+        <v>1.05776</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>-238</v>
+      </c>
+      <c r="I117">
+        <v>100451.26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118">
+        <v>34</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>1.06199</v>
+      </c>
+      <c r="F118">
+        <v>1.0608900000000001</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>100451.26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119">
+        <v>34</v>
+      </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
+      <c r="E119">
+        <v>1.06199</v>
+      </c>
+      <c r="F119">
+        <v>1.06131</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>100451.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120">
+        <v>34</v>
+      </c>
+      <c r="D120">
+        <v>7</v>
+      </c>
+      <c r="E120">
+        <v>1.0616300000000001</v>
+      </c>
+      <c r="F120">
+        <v>1.06131</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>-252</v>
+      </c>
+      <c r="I120">
+        <v>100199.26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>209</v>
+      </c>
+      <c r="B121" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121">
+        <v>35</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>1.06454</v>
+      </c>
+      <c r="F121">
+        <v>1.0634399999999999</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>100199.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>210</v>
+      </c>
+      <c r="B122" t="s">
+        <v>339</v>
+      </c>
+      <c r="C122">
+        <v>35</v>
+      </c>
+      <c r="D122">
+        <v>7</v>
+      </c>
+      <c r="E122">
+        <v>1.06454</v>
+      </c>
+      <c r="F122">
+        <v>1.0657399999999999</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>100199.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" t="s">
+        <v>342</v>
+      </c>
+      <c r="C123">
+        <v>35</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>1.0657399999999999</v>
+      </c>
+      <c r="F123">
+        <v>1.0657399999999999</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>840</v>
+      </c>
+      <c r="I123">
+        <v>101039.26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" t="s">
+        <v>341</v>
+      </c>
+      <c r="C124">
+        <v>36</v>
+      </c>
+      <c r="D124">
+        <v>7</v>
+      </c>
+      <c r="E124">
+        <v>1.06067</v>
+      </c>
+      <c r="F124">
+        <v>1.0617700000000001</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>101039.26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" t="s">
+        <v>339</v>
+      </c>
+      <c r="C125">
+        <v>36</v>
+      </c>
+      <c r="D125">
+        <v>7</v>
+      </c>
+      <c r="E125">
+        <v>1.06067</v>
+      </c>
+      <c r="F125">
+        <v>1.05942</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>101039.26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" t="s">
+        <v>339</v>
+      </c>
+      <c r="C126">
+        <v>36</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>1.06067</v>
+      </c>
+      <c r="F126">
+        <v>1.0588</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>101039.26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" t="s">
+        <v>339</v>
+      </c>
+      <c r="C127">
+        <v>36</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>1.06067</v>
+      </c>
+      <c r="F127">
+        <v>1.0578099999999999</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>101039.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" t="s">
+        <v>339</v>
+      </c>
+      <c r="C128">
+        <v>36</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>1.06067</v>
+      </c>
+      <c r="F128">
+        <v>1.05751</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>101039.26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" t="s">
+        <v>339</v>
+      </c>
+      <c r="C129">
+        <v>36</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129">
+        <v>1.06067</v>
+      </c>
+      <c r="F129">
+        <v>1.0573300000000001</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>101039.26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" t="s">
+        <v>342</v>
+      </c>
+      <c r="C130">
+        <v>36</v>
+      </c>
+      <c r="D130">
+        <v>7</v>
+      </c>
+      <c r="E130">
+        <v>1.0573300000000001</v>
+      </c>
+      <c r="F130">
+        <v>1.0573300000000001</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>2338</v>
+      </c>
+      <c r="I130">
+        <v>103377.26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" t="s">
+        <v>341</v>
+      </c>
+      <c r="C131">
+        <v>37</v>
+      </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>1.0558099999999999</v>
+      </c>
+      <c r="F131">
+        <v>1.05691</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>103377.26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132">
+        <v>37</v>
+      </c>
+      <c r="D132">
+        <v>7</v>
+      </c>
+      <c r="E132">
+        <v>1.0548299999999999</v>
+      </c>
+      <c r="F132">
+        <v>1.05691</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>686</v>
+      </c>
+      <c r="I132">
+        <v>104063.26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" t="s">
+        <v>341</v>
+      </c>
+      <c r="C133">
+        <v>38</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>1.0542199999999999</v>
+      </c>
+      <c r="F133">
+        <v>1.05532</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>104063.26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" t="s">
+        <v>342</v>
+      </c>
+      <c r="C134">
+        <v>38</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>1.05532</v>
+      </c>
+      <c r="F134">
+        <v>1.05532</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>-770</v>
+      </c>
+      <c r="I134">
+        <v>103293.26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135">
+        <v>39</v>
+      </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>1.05385</v>
+      </c>
+      <c r="F135">
+        <v>1.0549500000000001</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>103293.26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>229</v>
+      </c>
+      <c r="B136" t="s">
+        <v>342</v>
+      </c>
+      <c r="C136">
+        <v>39</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>1.0549500000000001</v>
+      </c>
+      <c r="F136">
+        <v>1.0549500000000001</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>-770</v>
+      </c>
+      <c r="I136">
+        <v>102523.26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>230</v>
+      </c>
+      <c r="B137" t="s">
+        <v>338</v>
+      </c>
+      <c r="C137">
+        <v>40</v>
+      </c>
+      <c r="D137">
+        <v>7</v>
+      </c>
+      <c r="E137">
+        <v>1.05674</v>
+      </c>
+      <c r="F137">
+        <v>1.0556399999999999</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>102523.26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>231</v>
+      </c>
+      <c r="B138" t="s">
+        <v>342</v>
+      </c>
+      <c r="C138">
+        <v>40</v>
+      </c>
+      <c r="D138">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>1.0556399999999999</v>
+      </c>
+      <c r="F138">
+        <v>1.0556399999999999</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>-770</v>
+      </c>
+      <c r="I138">
+        <v>101753.26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>346</v>
+      </c>
+      <c r="B139" t="s">
+        <v>341</v>
+      </c>
+      <c r="C139">
+        <v>41</v>
+      </c>
+      <c r="D139">
+        <v>7</v>
+      </c>
+      <c r="E139">
+        <v>1.0530900000000001</v>
+      </c>
+      <c r="F139">
+        <v>1.05419</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>101753.26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140" t="s">
+        <v>340</v>
+      </c>
+      <c r="C140">
+        <v>41</v>
+      </c>
+      <c r="D140">
+        <v>7</v>
+      </c>
+      <c r="E140">
+        <v>1.0537000000000001</v>
+      </c>
+      <c r="F140">
+        <v>1.05419</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>-427</v>
+      </c>
+      <c r="I140">
+        <v>101326.26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>236</v>
+      </c>
+      <c r="B141" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141">
+        <v>42</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141">
+        <v>1.06002</v>
+      </c>
+      <c r="F141">
+        <v>1.0611200000000001</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>101326.26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>237</v>
+      </c>
+      <c r="B142" t="s">
+        <v>342</v>
+      </c>
+      <c r="C142">
+        <v>42</v>
+      </c>
+      <c r="D142">
+        <v>7</v>
+      </c>
+      <c r="E142">
+        <v>1.0611200000000001</v>
+      </c>
+      <c r="F142">
+        <v>1.0611200000000001</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>-770</v>
+      </c>
+      <c r="I142">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143" t="s">
+        <v>338</v>
+      </c>
+      <c r="C143">
+        <v>43</v>
+      </c>
+      <c r="D143">
+        <v>7</v>
+      </c>
+      <c r="E143">
+        <v>1.0628</v>
+      </c>
+      <c r="F143">
+        <v>1.0617000000000001</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" t="s">
+        <v>339</v>
+      </c>
+      <c r="C144">
+        <v>43</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+      <c r="E144">
+        <v>1.0628</v>
+      </c>
+      <c r="F144">
+        <v>1.0620499999999999</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145">
+        <v>43</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145">
+        <v>1.0628</v>
+      </c>
+      <c r="F145">
+        <v>1.0623499999999999</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" t="s">
+        <v>339</v>
+      </c>
+      <c r="C146">
+        <v>43</v>
+      </c>
+      <c r="D146">
+        <v>7</v>
+      </c>
+      <c r="E146">
+        <v>1.0628</v>
+      </c>
+      <c r="F146">
+        <v>1.06263</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147">
+        <v>43</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <v>1.0628</v>
+      </c>
+      <c r="F147">
+        <v>1.06386</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" t="s">
+        <v>339</v>
+      </c>
+      <c r="C148">
+        <v>43</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148">
+        <v>1.0628</v>
+      </c>
+      <c r="F148">
+        <v>1.0645500000000001</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>244</v>
+      </c>
+      <c r="B149" t="s">
+        <v>339</v>
+      </c>
+      <c r="C149">
+        <v>43</v>
+      </c>
+      <c r="D149">
+        <v>7</v>
+      </c>
+      <c r="E149">
+        <v>1.0628</v>
+      </c>
+      <c r="F149">
+        <v>1.06531</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>245</v>
+      </c>
+      <c r="B150" t="s">
+        <v>339</v>
+      </c>
+      <c r="C150">
+        <v>43</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+      <c r="E150">
+        <v>1.0628</v>
+      </c>
+      <c r="F150">
+        <v>1.06535</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>100556.26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>246</v>
+      </c>
+      <c r="B151" t="s">
+        <v>342</v>
+      </c>
+      <c r="C151">
+        <v>43</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151">
+        <v>1.06535</v>
+      </c>
+      <c r="F151">
+        <v>1.06535</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>1785</v>
+      </c>
+      <c r="I151">
+        <v>102341.26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>247</v>
+      </c>
+      <c r="B152" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152">
+        <v>44</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>1.0625100000000001</v>
+      </c>
+      <c r="F152">
+        <v>1.0636099999999999</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>102341.26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>248</v>
+      </c>
+      <c r="B153" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153">
+        <v>44</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>1.06246</v>
+      </c>
+      <c r="F153">
+        <v>1.0636099999999999</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>35</v>
+      </c>
+      <c r="I153">
+        <v>102376.26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>249</v>
+      </c>
+      <c r="B154" t="s">
+        <v>341</v>
+      </c>
+      <c r="C154">
+        <v>45</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154">
+        <v>1.0617700000000001</v>
+      </c>
+      <c r="F154">
+        <v>1.06287</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>102376.26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>250</v>
+      </c>
+      <c r="B155" t="s">
+        <v>340</v>
+      </c>
+      <c r="C155">
+        <v>45</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155">
+        <v>1.0623100000000001</v>
+      </c>
+      <c r="F155">
+        <v>1.06287</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>-378</v>
+      </c>
+      <c r="I155">
+        <v>101998.26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156">
+        <v>46</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+      <c r="E156">
+        <v>1.0641400000000001</v>
+      </c>
+      <c r="F156">
+        <v>1.06304</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>101998.26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>258</v>
+      </c>
+      <c r="B157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157">
+        <v>46</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>1.0641400000000001</v>
+      </c>
+      <c r="F157">
+        <v>1.06368</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>101998.26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158">
+        <v>46</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158">
+        <v>1.0641400000000001</v>
+      </c>
+      <c r="F158">
+        <v>1.06409</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>101998.26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159">
+        <v>46</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159">
+        <v>1.0641400000000001</v>
+      </c>
+      <c r="F159">
+        <v>1.0643499999999999</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>101998.26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>261</v>
+      </c>
+      <c r="B160" t="s">
+        <v>339</v>
+      </c>
+      <c r="C160">
+        <v>46</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>1.0641400000000001</v>
+      </c>
+      <c r="F160">
+        <v>1.0697399999999999</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>101998.26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" t="s">
+        <v>339</v>
+      </c>
+      <c r="C161">
+        <v>46</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>1.0641400000000001</v>
+      </c>
+      <c r="F161">
+        <v>1.06986</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>101998.26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>263</v>
+      </c>
+      <c r="B162" t="s">
+        <v>342</v>
+      </c>
+      <c r="C162">
+        <v>46</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>1.06986</v>
+      </c>
+      <c r="F162">
+        <v>1.06986</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>4004</v>
+      </c>
+      <c r="I162">
+        <v>106002.26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>266</v>
+      </c>
+      <c r="B163" t="s">
+        <v>338</v>
+      </c>
+      <c r="C163">
+        <v>47</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>1.07544</v>
+      </c>
+      <c r="F163">
+        <v>1.0743400000000001</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>106002.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>267</v>
+      </c>
+      <c r="B164" t="s">
+        <v>340</v>
+      </c>
+      <c r="C164">
+        <v>47</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164">
+        <v>1.0746100000000001</v>
+      </c>
+      <c r="F164">
+        <v>1.0743400000000001</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>-581</v>
+      </c>
+      <c r="I164">
+        <v>105421.26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>273</v>
+      </c>
+      <c r="B165" t="s">
+        <v>341</v>
+      </c>
+      <c r="C165">
+        <v>48</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>1.0743499999999999</v>
+      </c>
+      <c r="F165">
+        <v>1.07545</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>105421.26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>274</v>
+      </c>
+      <c r="B166" t="s">
+        <v>340</v>
+      </c>
+      <c r="C166">
+        <v>48</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166">
+        <v>1.0741400000000001</v>
+      </c>
+      <c r="F166">
+        <v>1.07545</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>147</v>
+      </c>
+      <c r="I166">
+        <v>105568.26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" t="s">
+        <v>341</v>
+      </c>
+      <c r="C167">
+        <v>49</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167">
+        <v>1.07321</v>
+      </c>
+      <c r="F167">
+        <v>1.0743100000000001</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>105568.26</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" t="s">
+        <v>340</v>
+      </c>
+      <c r="C168">
+        <v>49</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+      <c r="E168">
+        <v>1.07359</v>
+      </c>
+      <c r="F168">
+        <v>1.0743100000000001</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>-266</v>
+      </c>
+      <c r="I168">
+        <v>105302.26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>281</v>
+      </c>
+      <c r="B169" t="s">
+        <v>341</v>
+      </c>
+      <c r="C169">
+        <v>50</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169">
+        <v>1.06942</v>
+      </c>
+      <c r="F169">
+        <v>1.0705199999999999</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>105302.26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>282</v>
+      </c>
+      <c r="B170" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170">
+        <v>50</v>
+      </c>
+      <c r="D170">
+        <v>7</v>
+      </c>
+      <c r="E170">
+        <v>1.0696399999999999</v>
+      </c>
+      <c r="F170">
+        <v>1.0705199999999999</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>-154</v>
+      </c>
+      <c r="I170">
+        <v>105148.26</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171">
+        <v>51</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+      <c r="E171">
+        <v>1.0668599999999999</v>
+      </c>
+      <c r="F171">
+        <v>1.06796</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>105148.26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>286</v>
+      </c>
+      <c r="B172" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172">
+        <v>51</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172">
+        <v>1.0671299999999999</v>
+      </c>
+      <c r="F172">
+        <v>1.06796</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>-189</v>
+      </c>
+      <c r="I172">
+        <v>104959.26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" t="s">
+        <v>338</v>
+      </c>
+      <c r="C173">
+        <v>52</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="E173">
+        <v>1.06839</v>
+      </c>
+      <c r="F173">
+        <v>1.0672900000000001</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>104959.26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>288</v>
+      </c>
+      <c r="B174" t="s">
+        <v>340</v>
+      </c>
+      <c r="C174">
+        <v>52</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174">
+        <v>1.06795</v>
+      </c>
+      <c r="F174">
+        <v>1.0672900000000001</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>-308</v>
+      </c>
+      <c r="I174">
+        <v>104651.26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>292</v>
+      </c>
+      <c r="B175" t="s">
+        <v>338</v>
+      </c>
+      <c r="C175">
+        <v>53</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="E175">
+        <v>1.06917</v>
+      </c>
+      <c r="F175">
+        <v>1.0680700000000001</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>104651.26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>293</v>
+      </c>
+      <c r="B176" t="s">
+        <v>339</v>
+      </c>
+      <c r="C176">
+        <v>53</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176">
+        <v>1.06917</v>
+      </c>
+      <c r="F176">
+        <v>1.06877</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>104651.26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>294</v>
+      </c>
+      <c r="B177" t="s">
+        <v>339</v>
+      </c>
+      <c r="C177">
+        <v>53</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177">
+        <v>1.06917</v>
+      </c>
+      <c r="F177">
+        <v>1.06908</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>104651.26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>295</v>
+      </c>
+      <c r="B178" t="s">
+        <v>339</v>
+      </c>
+      <c r="C178">
+        <v>53</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>1.06917</v>
+      </c>
+      <c r="F178">
+        <v>1.0691900000000001</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>104651.26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>296</v>
+      </c>
+      <c r="B179" t="s">
+        <v>342</v>
+      </c>
+      <c r="C179">
+        <v>53</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179">
+        <v>1.0691900000000001</v>
+      </c>
+      <c r="F179">
+        <v>1.0691900000000001</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>14</v>
+      </c>
+      <c r="I179">
+        <v>104665.26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" t="s">
+        <v>341</v>
+      </c>
+      <c r="C180">
+        <v>54</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180">
+        <v>1.06725</v>
+      </c>
+      <c r="F180">
+        <v>1.0683499999999999</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>104665.26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>302</v>
+      </c>
+      <c r="B181" t="s">
+        <v>340</v>
+      </c>
+      <c r="C181">
+        <v>54</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181">
+        <v>1.0668299999999999</v>
+      </c>
+      <c r="F181">
+        <v>1.0683499999999999</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>294</v>
+      </c>
+      <c r="I181">
+        <v>104959.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>303</v>
+      </c>
+      <c r="B182" t="s">
+        <v>341</v>
+      </c>
+      <c r="C182">
+        <v>55</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
+      </c>
+      <c r="E182">
+        <v>1.06647</v>
+      </c>
+      <c r="F182">
+        <v>1.0675699999999999</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>104959.26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>304</v>
+      </c>
+      <c r="B183" t="s">
+        <v>340</v>
+      </c>
+      <c r="C183">
+        <v>55</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+      <c r="E183">
+        <v>1.06694</v>
+      </c>
+      <c r="F183">
+        <v>1.0675699999999999</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>-329</v>
+      </c>
+      <c r="I183">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>305</v>
+      </c>
+      <c r="B184" t="s">
+        <v>338</v>
+      </c>
+      <c r="C184">
+        <v>56</v>
+      </c>
+      <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184">
+        <v>1.06724</v>
+      </c>
+      <c r="F184">
+        <v>1.0661400000000001</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>306</v>
+      </c>
+      <c r="B185" t="s">
+        <v>339</v>
+      </c>
+      <c r="C185">
+        <v>56</v>
+      </c>
+      <c r="D185">
+        <v>7</v>
+      </c>
+      <c r="E185">
+        <v>1.06724</v>
+      </c>
+      <c r="F185">
+        <v>1.0663100000000001</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>307</v>
+      </c>
+      <c r="B186" t="s">
+        <v>339</v>
+      </c>
+      <c r="C186">
+        <v>56</v>
+      </c>
+      <c r="D186">
+        <v>7</v>
+      </c>
+      <c r="E186">
+        <v>1.06724</v>
+      </c>
+      <c r="F186">
+        <v>1.0670200000000001</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>308</v>
+      </c>
+      <c r="B187" t="s">
+        <v>339</v>
+      </c>
+      <c r="C187">
+        <v>56</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>1.06724</v>
+      </c>
+      <c r="F187">
+        <v>1.06793</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>309</v>
+      </c>
+      <c r="B188" t="s">
+        <v>339</v>
+      </c>
+      <c r="C188">
+        <v>56</v>
+      </c>
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188">
+        <v>1.06724</v>
+      </c>
+      <c r="F188">
+        <v>1.06816</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>310</v>
+      </c>
+      <c r="B189" t="s">
+        <v>339</v>
+      </c>
+      <c r="C189">
+        <v>56</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+      <c r="E189">
+        <v>1.06724</v>
+      </c>
+      <c r="F189">
+        <v>1.06941</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>311</v>
+      </c>
+      <c r="B190" t="s">
+        <v>339</v>
+      </c>
+      <c r="C190">
+        <v>56</v>
+      </c>
+      <c r="D190">
+        <v>7</v>
+      </c>
+      <c r="E190">
+        <v>1.06724</v>
+      </c>
+      <c r="F190">
+        <v>1.0699099999999999</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>312</v>
+      </c>
+      <c r="B191" t="s">
+        <v>339</v>
+      </c>
+      <c r="C191">
+        <v>56</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191">
+        <v>1.06724</v>
+      </c>
+      <c r="F191">
+        <v>1.0701499999999999</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>313</v>
+      </c>
+      <c r="B192" t="s">
+        <v>339</v>
+      </c>
+      <c r="C192">
+        <v>56</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+      <c r="E192">
+        <v>1.06724</v>
+      </c>
+      <c r="F192">
+        <v>1.0703199999999999</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>104630.26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>314</v>
+      </c>
+      <c r="B193" t="s">
+        <v>342</v>
+      </c>
+      <c r="C193">
+        <v>56</v>
+      </c>
+      <c r="D193">
+        <v>7</v>
+      </c>
+      <c r="E193">
+        <v>1.0703199999999999</v>
+      </c>
+      <c r="F193">
+        <v>1.0703199999999999</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>2156</v>
+      </c>
+      <c r="I193">
+        <v>106786.26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>315</v>
+      </c>
+      <c r="B194" t="s">
+        <v>338</v>
+      </c>
+      <c r="C194">
+        <v>57</v>
+      </c>
+      <c r="D194">
+        <v>7</v>
+      </c>
+      <c r="E194">
+        <v>1.0709599999999999</v>
+      </c>
+      <c r="F194">
+        <v>1.06986</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>106786.26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>316</v>
+      </c>
+      <c r="B195" t="s">
+        <v>339</v>
+      </c>
+      <c r="C195">
+        <v>57</v>
+      </c>
+      <c r="D195">
+        <v>7</v>
+      </c>
+      <c r="E195">
+        <v>1.0709599999999999</v>
+      </c>
+      <c r="F195">
+        <v>1.06992</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>106786.26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" t="s">
+        <v>340</v>
+      </c>
+      <c r="C196">
+        <v>57</v>
+      </c>
+      <c r="D196">
+        <v>7</v>
+      </c>
+      <c r="E196">
+        <v>1.07053</v>
+      </c>
+      <c r="F196">
+        <v>1.06992</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>-493.42</v>
+      </c>
+      <c r="I196">
+        <v>106292.84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>320</v>
+      </c>
+      <c r="B197" t="s">
+        <v>341</v>
+      </c>
+      <c r="C197">
+        <v>58</v>
+      </c>
+      <c r="D197">
+        <v>7</v>
+      </c>
+      <c r="E197">
+        <v>1.0701400000000001</v>
+      </c>
+      <c r="F197">
+        <v>1.07124</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>106292.84</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>321</v>
+      </c>
+      <c r="B198" t="s">
+        <v>340</v>
+      </c>
+      <c r="C198">
+        <v>58</v>
+      </c>
+      <c r="D198">
+        <v>7</v>
+      </c>
+      <c r="E198">
+        <v>1.0689</v>
+      </c>
+      <c r="F198">
+        <v>1.07124</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>868</v>
+      </c>
+      <c r="I198">
+        <v>107160.84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>322</v>
+      </c>
+      <c r="B199" t="s">
+        <v>338</v>
+      </c>
+      <c r="C199">
+        <v>59</v>
+      </c>
+      <c r="D199">
+        <v>7</v>
+      </c>
+      <c r="E199">
+        <v>1.0707599999999999</v>
+      </c>
+      <c r="F199">
+        <v>1.0696600000000001</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>107160.84</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>323</v>
+      </c>
+      <c r="B200" t="s">
+        <v>339</v>
+      </c>
+      <c r="C200">
+        <v>59</v>
+      </c>
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>1.0707599999999999</v>
+      </c>
+      <c r="F200">
+        <v>1.06976</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>107160.84</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>324</v>
+      </c>
+      <c r="B201" t="s">
+        <v>339</v>
+      </c>
+      <c r="C201">
+        <v>59</v>
+      </c>
+      <c r="D201">
+        <v>7</v>
+      </c>
+      <c r="E201">
+        <v>1.0707599999999999</v>
+      </c>
+      <c r="F201">
+        <v>1.0713299999999999</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>107160.84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>325</v>
+      </c>
+      <c r="B202" t="s">
+        <v>342</v>
+      </c>
+      <c r="C202">
+        <v>59</v>
+      </c>
+      <c r="D202">
+        <v>7</v>
+      </c>
+      <c r="E202">
+        <v>1.0713299999999999</v>
+      </c>
+      <c r="F202">
+        <v>1.0713299999999999</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>399</v>
+      </c>
+      <c r="I202">
+        <v>107559.84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>328</v>
+      </c>
+      <c r="B203" t="s">
+        <v>341</v>
+      </c>
+      <c r="C203">
+        <v>60</v>
+      </c>
+      <c r="D203">
+        <v>7</v>
+      </c>
+      <c r="E203">
+        <v>1.0663800000000001</v>
+      </c>
+      <c r="F203">
+        <v>1.06748</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>107559.84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>329</v>
+      </c>
+      <c r="B204" t="s">
+        <v>343</v>
+      </c>
+      <c r="C204">
+        <v>60</v>
+      </c>
+      <c r="D204">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>1.0667599999999999</v>
+      </c>
+      <c r="F204">
+        <v>1.06748</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>-266</v>
+      </c>
+      <c r="I204">
+        <v>107293.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>